--- a/LuBan/cfgs/Datas/游戏局内物体/环境物体.xlsx
+++ b/LuBan/cfgs/Datas/游戏局内物体/环境物体.xlsx
@@ -12,12 +12,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -95,12 +108,15 @@
   </si>
   <si>
     <t>毒蘑菇</t>
+  </si>
+  <si>
+    <t>哈哈怪</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -716,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +740,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1077,12 +1096,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1311,6 +1330,27 @@
       </c>
       <c r="G11" s="3"/>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>10009</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G11">
     <extLst/>
